--- a/medicine/Mort/Tintoret_peignant_sa_fille_morte/Tintoret_peignant_sa_fille_morte.xlsx
+++ b/medicine/Mort/Tintoret_peignant_sa_fille_morte/Tintoret_peignant_sa_fille_morte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tintoret peignant sa fille morte est un tableau peint par Léon Cogniet, vers 1843. En 1853, le tableau est acheté par la Société des amis des arts de Bordeaux. 
 On peut retrouver de nombreuses études du tableau, au Musée des beaux-arts d'Orléans, léguées par Mme Cogniet, en 1892.
@@ -512,9 +524,11 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, il est prêté au Musée des beaux-arts de Lyon dans le cadre de l'exposition L'invention du Passé. Histoires de cœur et d'épée 1802-1850[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, il est prêté au Musée des beaux-arts de Lyon dans le cadre de l'exposition L'invention du Passé. Histoires de cœur et d'épée 1802-1850.
 </t>
         </is>
       </c>
